--- a/mosip_master/xlsx/user_detail.xlsx
+++ b/mosip_master/xlsx/user_detail.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\MASTER DATA\Master DAta Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD21CB30-65C2-44BB-BA36-16C6EF82585D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FAD9BE-48F8-415D-B4F6-83A7EF1ECBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A50AB6CA-8963-414F-AC35-7F2A9A2A0667}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A50AB6CA-8963-414F-AC35-7F2A9A2A0667}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$264</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="543">
   <si>
     <t>id</t>
   </si>
@@ -1662,6 +1665,9 @@
   </si>
   <si>
     <t>moses.zebosi (operator)</t>
+  </si>
+  <si>
+    <t>now()</t>
   </si>
 </sst>
 </file>
@@ -2089,24 +2095,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70704E1F-DAF5-4599-861B-FE8C7B02F5DB}">
   <dimension ref="A1:N264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="6" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -2178,15 +2184,15 @@
       <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7">
-        <v>7.1254629629629598E-2</v>
+      <c r="L2" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -2214,15 +2220,15 @@
       <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7">
-        <v>0.11292129629629601</v>
+      <c r="L3" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -2250,15 +2256,15 @@
       <c r="K4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7">
-        <v>0.15458796296296301</v>
+      <c r="L4" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -2286,15 +2292,15 @@
       <c r="K5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="7">
-        <v>0.19625462962963</v>
+      <c r="L5" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -2322,15 +2328,15 @@
       <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="7">
-        <v>0.23792129629629599</v>
+      <c r="L6" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -2358,15 +2364,15 @@
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="7">
-        <v>0.27958796296296301</v>
+      <c r="L7" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
@@ -2394,15 +2400,15 @@
       <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="7">
-        <v>0.32125462962962997</v>
+      <c r="L8" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -2430,15 +2436,15 @@
       <c r="K9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="7">
-        <v>0.36292129629629599</v>
+      <c r="L9" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -2466,15 +2472,15 @@
       <c r="K10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="7">
-        <v>0.40458796296296301</v>
+      <c r="L10" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
@@ -2502,15 +2508,15 @@
       <c r="K11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="7">
-        <v>0.44625462962962997</v>
+      <c r="L11" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -2538,15 +2544,15 @@
       <c r="K12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="7">
-        <v>0.48792129629629599</v>
+      <c r="L12" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -2574,15 +2580,15 @@
       <c r="K13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="7">
-        <v>0.52958796296296295</v>
+      <c r="L13" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -2610,15 +2616,15 @@
       <c r="K14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="7">
-        <v>0.57125462962963003</v>
+      <c r="L14" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M14" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
@@ -2646,15 +2652,15 @@
       <c r="K15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="7">
-        <v>0.61292129629629599</v>
+      <c r="L15" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -2682,15 +2688,15 @@
       <c r="K16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="7">
-        <v>0.65458796296296295</v>
+      <c r="L16" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
@@ -2718,15 +2724,15 @@
       <c r="K17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="7">
-        <v>0.69625462962963003</v>
+      <c r="L17" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
@@ -2754,15 +2760,15 @@
       <c r="K18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="7">
-        <v>0.73792129629629599</v>
+      <c r="L18" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
@@ -2790,15 +2796,15 @@
       <c r="K19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="7">
-        <v>0.77958796296296295</v>
+      <c r="L19" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -2826,15 +2832,15 @@
       <c r="K20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="7">
-        <v>0.82125462962963003</v>
+      <c r="L20" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>54</v>
       </c>
@@ -2862,15 +2868,15 @@
       <c r="K21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="7">
-        <v>0.86292129629629599</v>
+      <c r="L21" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M21" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
@@ -2898,15 +2904,15 @@
       <c r="K22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="7">
-        <v>0.90458796296296295</v>
+      <c r="L22" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M22" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>58</v>
       </c>
@@ -2934,15 +2940,15 @@
       <c r="K23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="7">
-        <v>0.94625462962963003</v>
+      <c r="L23" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
@@ -2970,15 +2976,15 @@
       <c r="K24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="7">
-        <v>0.98792129629629599</v>
+      <c r="L24" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>62</v>
       </c>
@@ -3006,15 +3012,15 @@
       <c r="K25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="7">
-        <v>1.0295879629629601</v>
+      <c r="L25" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>64</v>
       </c>
@@ -3042,15 +3048,15 @@
       <c r="K26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="7">
-        <v>1.0712546296296299</v>
+      <c r="L26" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
@@ -3078,15 +3084,15 @@
       <c r="K27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="7">
-        <v>1.1129212962963</v>
+      <c r="L27" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>68</v>
       </c>
@@ -3114,15 +3120,15 @@
       <c r="K28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="7">
-        <v>1.1545879629629601</v>
+      <c r="L28" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M28" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>70</v>
       </c>
@@ -3150,15 +3156,15 @@
       <c r="K29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="7">
-        <v>1.1962546296296299</v>
+      <c r="L29" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M29" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>72</v>
       </c>
@@ -3186,15 +3192,15 @@
       <c r="K30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="7">
-        <v>1.2379212962963</v>
+      <c r="L30" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -3222,15 +3228,15 @@
       <c r="K31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="7">
-        <v>1.2795879629629601</v>
+      <c r="L31" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M31" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>76</v>
       </c>
@@ -3258,15 +3264,15 @@
       <c r="K32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="7">
-        <v>1.3212546296296299</v>
+      <c r="L32" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>78</v>
       </c>
@@ -3294,15 +3300,15 @@
       <c r="K33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="7">
-        <v>1.3629212962963</v>
+      <c r="L33" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M33" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>80</v>
       </c>
@@ -3330,15 +3336,15 @@
       <c r="K34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="7">
-        <v>1.4045879629629601</v>
+      <c r="L34" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M34" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>82</v>
       </c>
@@ -3366,15 +3372,15 @@
       <c r="K35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="7">
-        <v>1.4462546296296299</v>
+      <c r="L35" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M35" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>84</v>
       </c>
@@ -3402,15 +3408,15 @@
       <c r="K36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="7">
-        <v>1.4879212962963</v>
+      <c r="L36" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M36" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>86</v>
       </c>
@@ -3438,15 +3444,15 @@
       <c r="K37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="7">
-        <v>1.5295879629629601</v>
+      <c r="L37" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M37" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>88</v>
       </c>
@@ -3474,15 +3480,15 @@
       <c r="K38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="7">
-        <v>1.5712546296296299</v>
+      <c r="L38" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M38" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>90</v>
       </c>
@@ -3510,15 +3516,15 @@
       <c r="K39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="7">
-        <v>1.6129212962963</v>
+      <c r="L39" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M39" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>92</v>
       </c>
@@ -3546,15 +3552,15 @@
       <c r="K40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="7">
-        <v>1.6545879629629601</v>
+      <c r="L40" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M40" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>94</v>
       </c>
@@ -3582,15 +3588,15 @@
       <c r="K41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L41" s="7">
-        <v>1.6962546296296299</v>
+      <c r="L41" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M41" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>96</v>
       </c>
@@ -3618,15 +3624,15 @@
       <c r="K42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="7">
-        <v>1.7379212962963</v>
+      <c r="L42" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M42" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>98</v>
       </c>
@@ -3654,15 +3660,15 @@
       <c r="K43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="7">
-        <v>1.7795879629629601</v>
+      <c r="L43" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>100</v>
       </c>
@@ -3690,15 +3696,15 @@
       <c r="K44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="7">
-        <v>1.8212546296296299</v>
+      <c r="L44" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M44" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>102</v>
       </c>
@@ -3726,15 +3732,15 @@
       <c r="K45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L45" s="7">
-        <v>1.8629212962963</v>
+      <c r="L45" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M45" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>104</v>
       </c>
@@ -3762,15 +3768,15 @@
       <c r="K46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L46" s="7">
-        <v>1.9045879629629601</v>
+      <c r="L46" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M46" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>106</v>
       </c>
@@ -3798,15 +3804,15 @@
       <c r="K47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="7">
-        <v>1.9462546296296299</v>
+      <c r="L47" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M47" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>108</v>
       </c>
@@ -3834,15 +3840,15 @@
       <c r="K48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L48" s="7">
-        <v>1.9879212962963</v>
+      <c r="L48" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M48" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>110</v>
       </c>
@@ -3870,15 +3876,15 @@
       <c r="K49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="7">
-        <v>2.0295879629629598</v>
+      <c r="L49" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M49" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>112</v>
       </c>
@@ -3906,15 +3912,15 @@
       <c r="K50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="7">
-        <v>2.0712546296296299</v>
+      <c r="L50" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M50" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>114</v>
       </c>
@@ -3942,15 +3948,15 @@
       <c r="K51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L51" s="7">
-        <v>2.1129212962963</v>
+      <c r="L51" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M51" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>116</v>
       </c>
@@ -3978,15 +3984,15 @@
       <c r="K52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L52" s="7">
-        <v>2.1545879629629598</v>
+      <c r="L52" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M52" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>118</v>
       </c>
@@ -4014,15 +4020,15 @@
       <c r="K53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="7">
-        <v>2.1962546296296299</v>
+      <c r="L53" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M53" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>120</v>
       </c>
@@ -4050,15 +4056,15 @@
       <c r="K54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L54" s="7">
-        <v>2.2379212962963</v>
+      <c r="L54" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M54" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>122</v>
       </c>
@@ -4086,15 +4092,15 @@
       <c r="K55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L55" s="7">
-        <v>2.2795879629629598</v>
+      <c r="L55" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M55" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>124</v>
       </c>
@@ -4122,15 +4128,15 @@
       <c r="K56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L56" s="7">
-        <v>2.3212546296296299</v>
+      <c r="L56" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M56" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>126</v>
       </c>
@@ -4158,15 +4164,15 @@
       <c r="K57" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L57" s="7">
-        <v>2.3629212962963</v>
+      <c r="L57" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M57" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>128</v>
       </c>
@@ -4194,15 +4200,15 @@
       <c r="K58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L58" s="7">
-        <v>2.4045879629629598</v>
+      <c r="L58" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M58" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>130</v>
       </c>
@@ -4230,15 +4236,15 @@
       <c r="K59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L59" s="7">
-        <v>2.4462546296296299</v>
+      <c r="L59" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M59" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>132</v>
       </c>
@@ -4266,15 +4272,15 @@
       <c r="K60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L60" s="7">
-        <v>2.4879212962963</v>
+      <c r="L60" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M60" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>134</v>
       </c>
@@ -4302,15 +4308,15 @@
       <c r="K61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L61" s="7">
-        <v>2.5295879629629598</v>
+      <c r="L61" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M61" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>136</v>
       </c>
@@ -4338,15 +4344,15 @@
       <c r="K62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L62" s="7">
-        <v>2.5712546296296299</v>
+      <c r="L62" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M62" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>138</v>
       </c>
@@ -4374,15 +4380,15 @@
       <c r="K63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L63" s="7">
-        <v>2.6129212962963</v>
+      <c r="L63" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M63" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>140</v>
       </c>
@@ -4410,15 +4416,15 @@
       <c r="K64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L64" s="7">
-        <v>2.6545879629629598</v>
+      <c r="L64" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M64" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>142</v>
       </c>
@@ -4446,15 +4452,15 @@
       <c r="K65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L65" s="7">
-        <v>2.6962546296296299</v>
+      <c r="L65" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M65" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>144</v>
       </c>
@@ -4482,15 +4488,15 @@
       <c r="K66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L66" s="7">
-        <v>2.7379212962963</v>
+      <c r="L66" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M66" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>146</v>
       </c>
@@ -4518,15 +4524,15 @@
       <c r="K67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L67" s="7">
-        <v>2.7795879629629598</v>
+      <c r="L67" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M67" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>148</v>
       </c>
@@ -4554,15 +4560,15 @@
       <c r="K68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L68" s="7">
-        <v>2.8212546296296299</v>
+      <c r="L68" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M68" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>150</v>
       </c>
@@ -4590,15 +4596,15 @@
       <c r="K69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L69" s="7">
-        <v>2.8629212962963</v>
+      <c r="L69" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M69" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>152</v>
       </c>
@@ -4626,15 +4632,15 @@
       <c r="K70" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L70" s="7">
-        <v>2.9045879629629598</v>
+      <c r="L70" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M70" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>154</v>
       </c>
@@ -4662,15 +4668,15 @@
       <c r="K71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L71" s="7">
-        <v>2.9462546296296299</v>
+      <c r="L71" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M71" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>156</v>
       </c>
@@ -4698,15 +4704,15 @@
       <c r="K72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L72" s="7">
-        <v>2.9879212962963</v>
+      <c r="L72" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M72" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>158</v>
       </c>
@@ -4734,15 +4740,15 @@
       <c r="K73" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L73" s="7">
-        <v>3.0295879629629598</v>
+      <c r="L73" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M73" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>160</v>
       </c>
@@ -4770,15 +4776,15 @@
       <c r="K74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L74" s="7">
-        <v>3.0712546296296299</v>
+      <c r="L74" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M74" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>162</v>
       </c>
@@ -4806,15 +4812,15 @@
       <c r="K75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L75" s="7">
-        <v>3.1129212962963</v>
+      <c r="L75" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M75" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>164</v>
       </c>
@@ -4842,15 +4848,15 @@
       <c r="K76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L76" s="7">
-        <v>3.1545879629629598</v>
+      <c r="L76" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M76" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>166</v>
       </c>
@@ -4878,15 +4884,15 @@
       <c r="K77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L77" s="7">
-        <v>3.1962546296296299</v>
+      <c r="L77" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M77" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>168</v>
       </c>
@@ -4914,15 +4920,15 @@
       <c r="K78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L78" s="7">
-        <v>3.2379212962963</v>
+      <c r="L78" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M78" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>170</v>
       </c>
@@ -4950,15 +4956,15 @@
       <c r="K79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L79" s="7">
-        <v>3.2795879629629598</v>
+      <c r="L79" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M79" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>172</v>
       </c>
@@ -4986,15 +4992,15 @@
       <c r="K80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L80" s="7">
-        <v>3.3212546296296299</v>
+      <c r="L80" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M80" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>174</v>
       </c>
@@ -5022,15 +5028,15 @@
       <c r="K81" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L81" s="7">
-        <v>3.3629212962963</v>
+      <c r="L81" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M81" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>176</v>
       </c>
@@ -5058,15 +5064,15 @@
       <c r="K82" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L82" s="7">
-        <v>3.4045879629629598</v>
+      <c r="L82" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M82" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>178</v>
       </c>
@@ -5094,15 +5100,15 @@
       <c r="K83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L83" s="7">
-        <v>3.4462546296296299</v>
+      <c r="L83" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M83" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>180</v>
       </c>
@@ -5130,15 +5136,15 @@
       <c r="K84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L84" s="7">
-        <v>3.4879212962963</v>
+      <c r="L84" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M84" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>182</v>
       </c>
@@ -5166,15 +5172,15 @@
       <c r="K85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L85" s="7">
-        <v>3.5295879629629598</v>
+      <c r="L85" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M85" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>184</v>
       </c>
@@ -5202,15 +5208,15 @@
       <c r="K86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L86" s="7">
-        <v>3.5712546296296299</v>
+      <c r="L86" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M86" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>186</v>
       </c>
@@ -5238,15 +5244,15 @@
       <c r="K87" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L87" s="7">
-        <v>3.6129212962963</v>
+      <c r="L87" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M87" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>188</v>
       </c>
@@ -5274,15 +5280,15 @@
       <c r="K88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L88" s="7">
-        <v>3.6545879629629598</v>
+      <c r="L88" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M88" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>190</v>
       </c>
@@ -5310,15 +5316,15 @@
       <c r="K89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L89" s="7">
-        <v>3.6962546296296299</v>
+      <c r="L89" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M89" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>192</v>
       </c>
@@ -5346,15 +5352,15 @@
       <c r="K90" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L90" s="7">
-        <v>3.7379212962963</v>
+      <c r="L90" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M90" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>194</v>
       </c>
@@ -5382,15 +5388,15 @@
       <c r="K91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L91" s="7">
-        <v>3.7795879629629598</v>
+      <c r="L91" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M91" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>196</v>
       </c>
@@ -5418,15 +5424,15 @@
       <c r="K92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L92" s="7">
-        <v>3.8212546296296299</v>
+      <c r="L92" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M92" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N92" s="5"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>198</v>
       </c>
@@ -5454,15 +5460,15 @@
       <c r="K93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L93" s="7">
-        <v>3.8629212962963</v>
+      <c r="L93" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M93" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N93" s="5"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>200</v>
       </c>
@@ -5490,15 +5496,15 @@
       <c r="K94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L94" s="7">
-        <v>3.9045879629629598</v>
+      <c r="L94" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M94" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N94" s="5"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>202</v>
       </c>
@@ -5526,15 +5532,15 @@
       <c r="K95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L95" s="7">
-        <v>3.9462546296296299</v>
+      <c r="L95" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M95" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N95" s="5"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>204</v>
       </c>
@@ -5562,15 +5568,15 @@
       <c r="K96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L96" s="7">
-        <v>3.9879212962963</v>
+      <c r="L96" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M96" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N96" s="5"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>206</v>
       </c>
@@ -5598,15 +5604,15 @@
       <c r="K97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L97" s="7">
-        <v>4.0295879629629603</v>
+      <c r="L97" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M97" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N97" s="5"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>208</v>
       </c>
@@ -5634,15 +5640,15 @@
       <c r="K98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L98" s="7">
-        <v>4.0712546296296299</v>
+      <c r="L98" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M98" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N98" s="5"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>210</v>
       </c>
@@ -5670,15 +5676,15 @@
       <c r="K99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L99" s="7">
-        <v>4.1129212962963004</v>
+      <c r="L99" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M99" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N99" s="5"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>212</v>
       </c>
@@ -5706,15 +5712,15 @@
       <c r="K100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L100" s="7">
-        <v>4.1545879629629603</v>
+      <c r="L100" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M100" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N100" s="5"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>214</v>
       </c>
@@ -5742,15 +5748,15 @@
       <c r="K101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L101" s="7">
-        <v>4.1962546296296299</v>
+      <c r="L101" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M101" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N101" s="5"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
         <v>216</v>
       </c>
@@ -5778,15 +5784,15 @@
       <c r="K102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L102" s="7">
-        <v>4.2379212962963004</v>
+      <c r="L102" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M102" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N102" s="5"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>218</v>
       </c>
@@ -5814,15 +5820,15 @@
       <c r="K103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L103" s="7">
-        <v>4.2795879629629603</v>
+      <c r="L103" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M103" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N103" s="5"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>220</v>
       </c>
@@ -5850,15 +5856,15 @@
       <c r="K104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L104" s="7">
-        <v>4.3212546296296299</v>
+      <c r="L104" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M104" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N104" s="5"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>222</v>
       </c>
@@ -5886,15 +5892,15 @@
       <c r="K105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L105" s="7">
-        <v>4.3629212962963004</v>
+      <c r="L105" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M105" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N105" s="5"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>224</v>
       </c>
@@ -5922,15 +5928,15 @@
       <c r="K106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L106" s="7">
-        <v>4.4045879629629603</v>
+      <c r="L106" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M106" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N106" s="5"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>226</v>
       </c>
@@ -5958,15 +5964,15 @@
       <c r="K107" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L107" s="7">
-        <v>4.4462546296296299</v>
+      <c r="L107" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M107" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N107" s="5"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>228</v>
       </c>
@@ -5994,15 +6000,15 @@
       <c r="K108" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L108" s="7">
-        <v>4.4879212962963004</v>
+      <c r="L108" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M108" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N108" s="5"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>230</v>
       </c>
@@ -6030,15 +6036,15 @@
       <c r="K109" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L109" s="7">
-        <v>4.5295879629629603</v>
+      <c r="L109" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M109" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N109" s="5"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>232</v>
       </c>
@@ -6066,15 +6072,15 @@
       <c r="K110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L110" s="7">
-        <v>4.5712546296296299</v>
+      <c r="L110" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M110" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N110" s="5"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>234</v>
       </c>
@@ -6102,15 +6108,15 @@
       <c r="K111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L111" s="7">
-        <v>4.6129212962963004</v>
+      <c r="L111" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N111" s="5"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>236</v>
       </c>
@@ -6138,15 +6144,15 @@
       <c r="K112" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L112" s="7">
-        <v>4.6545879629629603</v>
+      <c r="L112" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M112" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N112" s="5"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>238</v>
       </c>
@@ -6174,15 +6180,15 @@
       <c r="K113" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L113" s="7">
-        <v>4.6962546296296299</v>
+      <c r="L113" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M113" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N113" s="5"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>240</v>
       </c>
@@ -6210,15 +6216,15 @@
       <c r="K114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L114" s="7">
-        <v>4.7379212962963004</v>
+      <c r="L114" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M114" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N114" s="5"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>242</v>
       </c>
@@ -6246,15 +6252,15 @@
       <c r="K115" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L115" s="7">
-        <v>4.7795879629629603</v>
+      <c r="L115" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M115" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N115" s="5"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>244</v>
       </c>
@@ -6282,15 +6288,15 @@
       <c r="K116" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L116" s="7">
-        <v>4.8212546296296299</v>
+      <c r="L116" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M116" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N116" s="5"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>246</v>
       </c>
@@ -6318,15 +6324,15 @@
       <c r="K117" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L117" s="7">
-        <v>4.8629212962963004</v>
+      <c r="L117" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M117" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N117" s="5"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>248</v>
       </c>
@@ -6354,15 +6360,15 @@
       <c r="K118" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L118" s="7">
-        <v>4.9045879629629603</v>
+      <c r="L118" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M118" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N118" s="5"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>250</v>
       </c>
@@ -6390,15 +6396,15 @@
       <c r="K119" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L119" s="7">
-        <v>4.9462546296296299</v>
+      <c r="L119" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M119" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N119" s="5"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>252</v>
       </c>
@@ -6426,15 +6432,15 @@
       <c r="K120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L120" s="7">
-        <v>4.9879212962963004</v>
+      <c r="L120" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M120" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N120" s="5"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>254</v>
       </c>
@@ -6462,15 +6468,15 @@
       <c r="K121" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L121" s="7">
-        <v>5.0295879629629603</v>
+      <c r="L121" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M121" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N121" s="5"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>256</v>
       </c>
@@ -6498,15 +6504,15 @@
       <c r="K122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L122" s="7">
-        <v>5.0712546296296299</v>
+      <c r="L122" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M122" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N122" s="5"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>258</v>
       </c>
@@ -6534,15 +6540,15 @@
       <c r="K123" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L123" s="7">
-        <v>5.1129212962963004</v>
+      <c r="L123" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M123" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N123" s="5"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>260</v>
       </c>
@@ -6570,15 +6576,15 @@
       <c r="K124" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L124" s="7">
-        <v>5.1545879629629603</v>
+      <c r="L124" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M124" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N124" s="5"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>262</v>
       </c>
@@ -6606,15 +6612,15 @@
       <c r="K125" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L125" s="7">
-        <v>5.1962546296296299</v>
+      <c r="L125" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M125" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N125" s="5"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
         <v>264</v>
       </c>
@@ -6642,15 +6648,15 @@
       <c r="K126" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L126" s="7">
-        <v>5.2379212962963004</v>
+      <c r="L126" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M126" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N126" s="5"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>266</v>
       </c>
@@ -6678,15 +6684,15 @@
       <c r="K127" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L127" s="7">
-        <v>5.2795879629629603</v>
+      <c r="L127" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M127" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N127" s="5"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>268</v>
       </c>
@@ -6714,15 +6720,15 @@
       <c r="K128" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L128" s="7">
-        <v>5.3212546296296299</v>
+      <c r="L128" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M128" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N128" s="5"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>270</v>
       </c>
@@ -6750,15 +6756,15 @@
       <c r="K129" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L129" s="7">
-        <v>5.3629212962963004</v>
+      <c r="L129" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M129" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N129" s="5"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
         <v>272</v>
       </c>
@@ -6786,15 +6792,15 @@
       <c r="K130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L130" s="7">
-        <v>5.4045879629629603</v>
+      <c r="L130" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M130" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N130" s="5"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>274</v>
       </c>
@@ -6822,15 +6828,15 @@
       <c r="K131" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L131" s="7">
-        <v>5.4462546296296299</v>
+      <c r="L131" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M131" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N131" s="5"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>276</v>
       </c>
@@ -6858,15 +6864,15 @@
       <c r="K132" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L132" s="7">
-        <v>5.4879212962963004</v>
+      <c r="L132" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M132" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N132" s="5"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>278</v>
       </c>
@@ -6894,15 +6900,15 @@
       <c r="K133" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L133" s="7">
-        <v>5.5295879629629603</v>
+      <c r="L133" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M133" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N133" s="5"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>280</v>
       </c>
@@ -6930,15 +6936,15 @@
       <c r="K134" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L134" s="7">
-        <v>5.5712546296296299</v>
+      <c r="L134" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M134" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N134" s="5"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>282</v>
       </c>
@@ -6966,15 +6972,15 @@
       <c r="K135" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L135" s="7">
-        <v>5.6129212962963004</v>
+      <c r="L135" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M135" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N135" s="5"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>284</v>
       </c>
@@ -7002,15 +7008,15 @@
       <c r="K136" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L136" s="7">
-        <v>5.6545879629629603</v>
+      <c r="L136" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M136" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N136" s="5"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>286</v>
       </c>
@@ -7038,15 +7044,15 @@
       <c r="K137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L137" s="7">
-        <v>5.6962546296296299</v>
+      <c r="L137" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M137" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N137" s="5"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>288</v>
       </c>
@@ -7074,15 +7080,15 @@
       <c r="K138" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L138" s="7">
-        <v>5.7379212962963004</v>
+      <c r="L138" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M138" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N138" s="5"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>290</v>
       </c>
@@ -7110,15 +7116,15 @@
       <c r="K139" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L139" s="7">
-        <v>5.7795879629629603</v>
+      <c r="L139" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M139" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N139" s="5"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>292</v>
       </c>
@@ -7146,15 +7152,15 @@
       <c r="K140" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L140" s="7">
-        <v>5.8212546296296299</v>
+      <c r="L140" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M140" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N140" s="5"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
         <v>294</v>
       </c>
@@ -7182,15 +7188,15 @@
       <c r="K141" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L141" s="7">
-        <v>5.8629212962963004</v>
+      <c r="L141" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M141" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N141" s="5"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>296</v>
       </c>
@@ -7218,15 +7224,15 @@
       <c r="K142" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L142" s="7">
-        <v>5.9045879629629603</v>
+      <c r="L142" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M142" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N142" s="5"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>298</v>
       </c>
@@ -7254,15 +7260,15 @@
       <c r="K143" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L143" s="7">
-        <v>5.9462546296296299</v>
+      <c r="L143" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M143" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N143" s="5"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
         <v>300</v>
       </c>
@@ -7290,15 +7296,15 @@
       <c r="K144" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L144" s="7">
-        <v>5.9879212962963004</v>
+      <c r="L144" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M144" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N144" s="5"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>302</v>
       </c>
@@ -7326,15 +7332,15 @@
       <c r="K145" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L145" s="7">
-        <v>6.0295879629629603</v>
+      <c r="L145" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M145" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N145" s="5"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>304</v>
       </c>
@@ -7362,15 +7368,15 @@
       <c r="K146" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L146" s="7">
-        <v>6.0712546296296299</v>
+      <c r="L146" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M146" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N146" s="5"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>306</v>
       </c>
@@ -7398,15 +7404,15 @@
       <c r="K147" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L147" s="7">
-        <v>6.1129212962963004</v>
+      <c r="L147" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M147" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N147" s="5"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>308</v>
       </c>
@@ -7434,15 +7440,15 @@
       <c r="K148" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L148" s="7">
-        <v>6.1545879629629603</v>
+      <c r="L148" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M148" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N148" s="5"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
         <v>310</v>
       </c>
@@ -7470,15 +7476,15 @@
       <c r="K149" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L149" s="7">
-        <v>6.1962546296296299</v>
+      <c r="L149" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M149" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N149" s="5"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>312</v>
       </c>
@@ -7506,15 +7512,15 @@
       <c r="K150" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L150" s="7">
-        <v>6.2379212962963004</v>
+      <c r="L150" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M150" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N150" s="5"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
         <v>314</v>
       </c>
@@ -7542,15 +7548,15 @@
       <c r="K151" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L151" s="7">
-        <v>6.2795879629629603</v>
+      <c r="L151" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M151" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N151" s="5"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>316</v>
       </c>
@@ -7578,15 +7584,15 @@
       <c r="K152" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L152" s="7">
-        <v>6.3212546296296299</v>
+      <c r="L152" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M152" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N152" s="5"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>318</v>
       </c>
@@ -7614,15 +7620,15 @@
       <c r="K153" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L153" s="7">
-        <v>6.3629212962963004</v>
+      <c r="L153" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M153" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N153" s="5"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
         <v>320</v>
       </c>
@@ -7650,15 +7656,15 @@
       <c r="K154" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L154" s="7">
-        <v>6.4045879629629603</v>
+      <c r="L154" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M154" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N154" s="5"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>322</v>
       </c>
@@ -7686,15 +7692,15 @@
       <c r="K155" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L155" s="7">
-        <v>6.4462546296296299</v>
+      <c r="L155" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M155" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N155" s="5"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>324</v>
       </c>
@@ -7722,15 +7728,15 @@
       <c r="K156" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L156" s="7">
-        <v>6.4879212962963004</v>
+      <c r="L156" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M156" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N156" s="5"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
         <v>326</v>
       </c>
@@ -7758,15 +7764,15 @@
       <c r="K157" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L157" s="7">
-        <v>6.5295879629629603</v>
+      <c r="L157" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M157" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N157" s="5"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
         <v>328</v>
       </c>
@@ -7794,15 +7800,15 @@
       <c r="K158" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L158" s="7">
-        <v>6.5712546296296299</v>
+      <c r="L158" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M158" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N158" s="5"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>330</v>
       </c>
@@ -7830,15 +7836,15 @@
       <c r="K159" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L159" s="7">
-        <v>6.6129212962963004</v>
+      <c r="L159" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M159" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N159" s="5"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>332</v>
       </c>
@@ -7866,15 +7872,15 @@
       <c r="K160" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L160" s="7">
-        <v>6.6545879629629603</v>
+      <c r="L160" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M160" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N160" s="5"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
         <v>334</v>
       </c>
@@ -7902,15 +7908,15 @@
       <c r="K161" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L161" s="7">
-        <v>6.6962546296296299</v>
+      <c r="L161" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M161" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N161" s="5"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
         <v>336</v>
       </c>
@@ -7938,15 +7944,15 @@
       <c r="K162" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L162" s="7">
-        <v>6.7379212962963004</v>
+      <c r="L162" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M162" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N162" s="5"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
         <v>338</v>
       </c>
@@ -7974,15 +7980,15 @@
       <c r="K163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L163" s="7">
-        <v>6.7795879629629603</v>
+      <c r="L163" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M163" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N163" s="5"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
         <v>340</v>
       </c>
@@ -8010,15 +8016,15 @@
       <c r="K164" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L164" s="7">
-        <v>6.8212546296296299</v>
+      <c r="L164" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M164" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N164" s="5"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
         <v>342</v>
       </c>
@@ -8046,15 +8052,15 @@
       <c r="K165" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L165" s="7">
-        <v>6.8629212962963004</v>
+      <c r="L165" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M165" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N165" s="5"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
         <v>344</v>
       </c>
@@ -8082,15 +8088,15 @@
       <c r="K166" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L166" s="7">
-        <v>6.9045879629629603</v>
+      <c r="L166" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M166" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N166" s="5"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
         <v>346</v>
       </c>
@@ -8118,15 +8124,15 @@
       <c r="K167" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L167" s="7">
-        <v>6.9462546296296299</v>
+      <c r="L167" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M167" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N167" s="5"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
         <v>348</v>
       </c>
@@ -8154,15 +8160,15 @@
       <c r="K168" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L168" s="7">
-        <v>6.9879212962963004</v>
+      <c r="L168" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M168" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N168" s="5"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
         <v>350</v>
       </c>
@@ -8190,15 +8196,15 @@
       <c r="K169" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L169" s="7">
-        <v>7.0295879629629603</v>
+      <c r="L169" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M169" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N169" s="5"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
         <v>352</v>
       </c>
@@ -8226,15 +8232,15 @@
       <c r="K170" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L170" s="7">
-        <v>7.0712546296296299</v>
+      <c r="L170" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M170" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N170" s="5"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>354</v>
       </c>
@@ -8262,15 +8268,15 @@
       <c r="K171" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L171" s="7">
-        <v>7.1129212962963004</v>
+      <c r="L171" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M171" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N171" s="5"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
         <v>356</v>
       </c>
@@ -8298,15 +8304,15 @@
       <c r="K172" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L172" s="7">
-        <v>7.1545879629629603</v>
+      <c r="L172" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M172" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N172" s="5"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
         <v>358</v>
       </c>
@@ -8334,15 +8340,15 @@
       <c r="K173" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L173" s="7">
-        <v>7.1962546296296299</v>
+      <c r="L173" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M173" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N173" s="5"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
         <v>360</v>
       </c>
@@ -8370,15 +8376,15 @@
       <c r="K174" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L174" s="7">
-        <v>7.2379212962963004</v>
+      <c r="L174" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M174" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N174" s="5"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
         <v>362</v>
       </c>
@@ -8406,15 +8412,15 @@
       <c r="K175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L175" s="7">
-        <v>7.2795879629629603</v>
+      <c r="L175" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M175" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N175" s="5"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="8" t="s">
         <v>364</v>
       </c>
@@ -8442,15 +8448,15 @@
       <c r="K176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L176" s="7">
-        <v>7.3212546296296299</v>
+      <c r="L176" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M176" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N176" s="5"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
         <v>366</v>
       </c>
@@ -8478,15 +8484,15 @@
       <c r="K177" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L177" s="7">
-        <v>7.3629212962963004</v>
+      <c r="L177" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M177" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N177" s="5"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="8" t="s">
         <v>368</v>
       </c>
@@ -8514,15 +8520,15 @@
       <c r="K178" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L178" s="7">
-        <v>7.4045879629629603</v>
+      <c r="L178" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M178" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N178" s="5"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
         <v>370</v>
       </c>
@@ -8550,15 +8556,15 @@
       <c r="K179" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L179" s="7">
-        <v>7.4462546296296299</v>
+      <c r="L179" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M179" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N179" s="5"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="8" t="s">
         <v>372</v>
       </c>
@@ -8586,15 +8592,15 @@
       <c r="K180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L180" s="7">
-        <v>7.4879212962963004</v>
+      <c r="L180" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M180" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N180" s="5"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="8" t="s">
         <v>374</v>
       </c>
@@ -8622,15 +8628,15 @@
       <c r="K181" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L181" s="7">
-        <v>7.5295879629629603</v>
+      <c r="L181" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M181" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N181" s="5"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="8" t="s">
         <v>376</v>
       </c>
@@ -8658,15 +8664,15 @@
       <c r="K182" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L182" s="7">
-        <v>7.5712546296296299</v>
+      <c r="L182" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M182" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N182" s="5"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="8" t="s">
         <v>378</v>
       </c>
@@ -8694,15 +8700,15 @@
       <c r="K183" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L183" s="7">
-        <v>7.6129212962963004</v>
+      <c r="L183" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M183" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N183" s="5"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="8" t="s">
         <v>380</v>
       </c>
@@ -8730,15 +8736,15 @@
       <c r="K184" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L184" s="7">
-        <v>7.6545879629629603</v>
+      <c r="L184" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M184" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N184" s="5"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="8" t="s">
         <v>382</v>
       </c>
@@ -8766,15 +8772,15 @@
       <c r="K185" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L185" s="7">
-        <v>7.6962546296296299</v>
+      <c r="L185" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M185" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N185" s="5"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="8" t="s">
         <v>384</v>
       </c>
@@ -8802,15 +8808,15 @@
       <c r="K186" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L186" s="7">
-        <v>7.7379212962963004</v>
+      <c r="L186" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M186" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N186" s="5"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
         <v>386</v>
       </c>
@@ -8838,15 +8844,15 @@
       <c r="K187" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L187" s="7">
-        <v>7.7795879629629603</v>
+      <c r="L187" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M187" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N187" s="5"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="8" t="s">
         <v>388</v>
       </c>
@@ -8874,15 +8880,15 @@
       <c r="K188" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L188" s="7">
-        <v>7.8212546296296299</v>
+      <c r="L188" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M188" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N188" s="5"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
         <v>390</v>
       </c>
@@ -8910,15 +8916,15 @@
       <c r="K189" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L189" s="7">
-        <v>7.8629212962963004</v>
+      <c r="L189" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M189" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N189" s="5"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
         <v>392</v>
       </c>
@@ -8946,15 +8952,15 @@
       <c r="K190" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L190" s="7">
-        <v>7.9045879629629603</v>
+      <c r="L190" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M190" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N190" s="5"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
         <v>394</v>
       </c>
@@ -8982,15 +8988,15 @@
       <c r="K191" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L191" s="7">
-        <v>7.9462546296296299</v>
+      <c r="L191" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M191" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N191" s="5"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="8" t="s">
         <v>396</v>
       </c>
@@ -9018,15 +9024,15 @@
       <c r="K192" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L192" s="7">
-        <v>7.9879212962963004</v>
+      <c r="L192" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M192" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N192" s="5"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
         <v>398</v>
       </c>
@@ -9054,15 +9060,15 @@
       <c r="K193" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L193" s="7">
-        <v>8.0295879629629603</v>
+      <c r="L193" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M193" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N193" s="5"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="8" t="s">
         <v>400</v>
       </c>
@@ -9090,15 +9096,15 @@
       <c r="K194" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L194" s="7">
-        <v>8.0712546296296299</v>
+      <c r="L194" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M194" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N194" s="5"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
         <v>402</v>
       </c>
@@ -9126,15 +9132,15 @@
       <c r="K195" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L195" s="7">
-        <v>8.1129212962962995</v>
+      <c r="L195" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M195" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N195" s="5"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="8" t="s">
         <v>404</v>
       </c>
@@ -9162,15 +9168,15 @@
       <c r="K196" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L196" s="7">
-        <v>8.1545879629629603</v>
+      <c r="L196" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M196" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N196" s="5"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
         <v>406</v>
       </c>
@@ -9198,15 +9204,15 @@
       <c r="K197" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L197" s="7">
-        <v>8.1962546296296299</v>
+      <c r="L197" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M197" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N197" s="5"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="8" t="s">
         <v>408</v>
       </c>
@@ -9234,15 +9240,15 @@
       <c r="K198" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L198" s="7">
-        <v>8.2379212962962995</v>
+      <c r="L198" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M198" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N198" s="5"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="8" t="s">
         <v>410</v>
       </c>
@@ -9270,15 +9276,15 @@
       <c r="K199" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L199" s="7">
-        <v>8.2795879629629603</v>
+      <c r="L199" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M199" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N199" s="5"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="8" t="s">
         <v>412</v>
       </c>
@@ -9306,15 +9312,15 @@
       <c r="K200" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L200" s="7">
-        <v>8.3212546296296299</v>
+      <c r="L200" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M200" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N200" s="5"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="8" t="s">
         <v>414</v>
       </c>
@@ -9342,15 +9348,15 @@
       <c r="K201" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L201" s="7">
-        <v>8.3629212962962995</v>
+      <c r="L201" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M201" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N201" s="5"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="8" t="s">
         <v>416</v>
       </c>
@@ -9378,15 +9384,15 @@
       <c r="K202" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L202" s="7">
-        <v>8.4045879629629603</v>
+      <c r="L202" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M202" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N202" s="5"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="8" t="s">
         <v>418</v>
       </c>
@@ -9414,15 +9420,15 @@
       <c r="K203" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L203" s="7">
-        <v>8.4462546296296299</v>
+      <c r="L203" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M203" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N203" s="5"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="8" t="s">
         <v>420</v>
       </c>
@@ -9450,15 +9456,15 @@
       <c r="K204" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L204" s="7">
-        <v>8.4879212962962995</v>
+      <c r="L204" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M204" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N204" s="5"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
         <v>422</v>
       </c>
@@ -9486,15 +9492,15 @@
       <c r="K205" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L205" s="7">
-        <v>8.5295879629629603</v>
+      <c r="L205" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M205" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N205" s="5"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="8" t="s">
         <v>424</v>
       </c>
@@ -9522,15 +9528,15 @@
       <c r="K206" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L206" s="7">
-        <v>8.5712546296296299</v>
+      <c r="L206" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M206" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N206" s="5"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="8" t="s">
         <v>426</v>
       </c>
@@ -9558,15 +9564,15 @@
       <c r="K207" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L207" s="7">
-        <v>8.6129212962962995</v>
+      <c r="L207" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M207" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N207" s="5"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="8" t="s">
         <v>428</v>
       </c>
@@ -9594,15 +9600,15 @@
       <c r="K208" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L208" s="7">
-        <v>8.6545879629629603</v>
+      <c r="L208" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M208" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N208" s="5"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="8" t="s">
         <v>430</v>
       </c>
@@ -9630,15 +9636,15 @@
       <c r="K209" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L209" s="7">
-        <v>8.6962546296296299</v>
+      <c r="L209" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M209" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N209" s="5"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="8" t="s">
         <v>432</v>
       </c>
@@ -9666,15 +9672,15 @@
       <c r="K210" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L210" s="7">
-        <v>8.7379212962962995</v>
+      <c r="L210" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M210" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N210" s="5"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="8" t="s">
         <v>434</v>
       </c>
@@ -9702,15 +9708,15 @@
       <c r="K211" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L211" s="7">
-        <v>8.7795879629629603</v>
+      <c r="L211" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M211" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N211" s="5"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="8" t="s">
         <v>436</v>
       </c>
@@ -9738,15 +9744,15 @@
       <c r="K212" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L212" s="7">
-        <v>8.8212546296296299</v>
+      <c r="L212" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M212" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N212" s="5"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="8" t="s">
         <v>438</v>
       </c>
@@ -9774,15 +9780,15 @@
       <c r="K213" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L213" s="7">
-        <v>8.8629212962962995</v>
+      <c r="L213" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M213" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N213" s="5"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" s="8" t="s">
         <v>440</v>
       </c>
@@ -9810,15 +9816,15 @@
       <c r="K214" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L214" s="7">
-        <v>8.9045879629629603</v>
+      <c r="L214" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M214" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N214" s="5"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
         <v>442</v>
       </c>
@@ -9846,15 +9852,15 @@
       <c r="K215" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L215" s="7">
-        <v>8.9462546296296299</v>
+      <c r="L215" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M215" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N215" s="5"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="8" t="s">
         <v>444</v>
       </c>
@@ -9882,15 +9888,15 @@
       <c r="K216" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L216" s="7">
-        <v>8.9879212962962995</v>
+      <c r="L216" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M216" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N216" s="5"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="8" t="s">
         <v>446</v>
       </c>
@@ -9918,15 +9924,15 @@
       <c r="K217" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L217" s="7">
-        <v>9.0295879629629603</v>
+      <c r="L217" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M217" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N217" s="5"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="8" t="s">
         <v>448</v>
       </c>
@@ -9954,15 +9960,15 @@
       <c r="K218" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L218" s="7">
-        <v>9.0712546296296299</v>
+      <c r="L218" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M218" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N218" s="5"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="8" t="s">
         <v>450</v>
       </c>
@@ -9990,15 +9996,15 @@
       <c r="K219" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L219" s="7">
-        <v>9.1129212962962995</v>
+      <c r="L219" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M219" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N219" s="5"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="8" t="s">
         <v>452</v>
       </c>
@@ -10026,15 +10032,15 @@
       <c r="K220" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L220" s="7">
-        <v>9.1545879629629603</v>
+      <c r="L220" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M220" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N220" s="5"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="8" t="s">
         <v>454</v>
       </c>
@@ -10062,15 +10068,15 @@
       <c r="K221" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L221" s="7">
-        <v>9.1962546296296299</v>
+      <c r="L221" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M221" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N221" s="5"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="8" t="s">
         <v>456</v>
       </c>
@@ -10098,15 +10104,15 @@
       <c r="K222" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L222" s="7">
-        <v>9.2379212962962995</v>
+      <c r="L222" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M222" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N222" s="5"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="8" t="s">
         <v>458</v>
       </c>
@@ -10134,15 +10140,15 @@
       <c r="K223" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L223" s="7">
-        <v>9.2795879629629603</v>
+      <c r="L223" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M223" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N223" s="5"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="8" t="s">
         <v>460</v>
       </c>
@@ -10170,15 +10176,15 @@
       <c r="K224" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L224" s="7">
-        <v>9.3212546296296299</v>
+      <c r="L224" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M224" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N224" s="5"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
         <v>462</v>
       </c>
@@ -10206,15 +10212,15 @@
       <c r="K225" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L225" s="7">
-        <v>9.3629212962962995</v>
+      <c r="L225" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M225" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N225" s="5"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="8" t="s">
         <v>464</v>
       </c>
@@ -10242,15 +10248,15 @@
       <c r="K226" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L226" s="7">
-        <v>9.4045879629629603</v>
+      <c r="L226" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M226" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N226" s="5"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
         <v>466</v>
       </c>
@@ -10278,15 +10284,15 @@
       <c r="K227" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L227" s="7">
-        <v>9.4462546296296299</v>
+      <c r="L227" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M227" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N227" s="5"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
         <v>468</v>
       </c>
@@ -10314,15 +10320,15 @@
       <c r="K228" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L228" s="7">
-        <v>9.4879212962962995</v>
+      <c r="L228" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M228" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N228" s="5"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
         <v>470</v>
       </c>
@@ -10350,15 +10356,15 @@
       <c r="K229" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L229" s="7">
-        <v>9.5295879629629603</v>
+      <c r="L229" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M229" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N229" s="5"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="8" t="s">
         <v>472</v>
       </c>
@@ -10386,15 +10392,15 @@
       <c r="K230" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L230" s="7">
-        <v>9.5712546296296299</v>
+      <c r="L230" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M230" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N230" s="5"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="8" t="s">
         <v>474</v>
       </c>
@@ -10422,15 +10428,15 @@
       <c r="K231" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L231" s="7">
-        <v>9.6129212962962995</v>
+      <c r="L231" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M231" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N231" s="5"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="8" t="s">
         <v>476</v>
       </c>
@@ -10458,15 +10464,15 @@
       <c r="K232" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L232" s="7">
-        <v>9.6545879629629603</v>
+      <c r="L232" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M232" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N232" s="5"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="8" t="s">
         <v>478</v>
       </c>
@@ -10494,15 +10500,15 @@
       <c r="K233" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L233" s="7">
-        <v>9.6962546296296299</v>
+      <c r="L233" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M233" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N233" s="5"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="8" t="s">
         <v>480</v>
       </c>
@@ -10530,15 +10536,15 @@
       <c r="K234" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L234" s="7">
-        <v>9.7379212962962995</v>
+      <c r="L234" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M234" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N234" s="5"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="8" t="s">
         <v>482</v>
       </c>
@@ -10566,15 +10572,15 @@
       <c r="K235" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L235" s="7">
-        <v>9.7795879629629603</v>
+      <c r="L235" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M235" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N235" s="5"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="8" t="s">
         <v>484</v>
       </c>
@@ -10602,15 +10608,15 @@
       <c r="K236" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L236" s="7">
-        <v>9.8212546296296299</v>
+      <c r="L236" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M236" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N236" s="5"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="8" t="s">
         <v>486</v>
       </c>
@@ -10638,15 +10644,15 @@
       <c r="K237" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L237" s="7">
-        <v>9.8629212962962995</v>
+      <c r="L237" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M237" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N237" s="5"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="8" t="s">
         <v>488</v>
       </c>
@@ -10674,15 +10680,15 @@
       <c r="K238" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L238" s="7">
-        <v>9.9045879629629603</v>
+      <c r="L238" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M238" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N238" s="5"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="8" t="s">
         <v>490</v>
       </c>
@@ -10710,15 +10716,15 @@
       <c r="K239" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L239" s="7">
-        <v>9.9462546296296299</v>
+      <c r="L239" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M239" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N239" s="5"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="8" t="s">
         <v>492</v>
       </c>
@@ -10746,15 +10752,15 @@
       <c r="K240" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L240" s="7">
-        <v>9.9879212962962995</v>
+      <c r="L240" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M240" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N240" s="5"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="8" t="s">
         <v>494</v>
       </c>
@@ -10782,15 +10788,15 @@
       <c r="K241" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L241" s="7">
-        <v>10.029587962962999</v>
+      <c r="L241" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M241" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N241" s="5"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="8" t="s">
         <v>496</v>
       </c>
@@ -10818,15 +10824,15 @@
       <c r="K242" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L242" s="7">
-        <v>10.0712546296296</v>
+      <c r="L242" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M242" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N242" s="5"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="8" t="s">
         <v>498</v>
       </c>
@@ -10854,15 +10860,15 @@
       <c r="K243" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L243" s="7">
-        <v>10.1129212962963</v>
+      <c r="L243" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M243" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N243" s="5"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" s="8" t="s">
         <v>500</v>
       </c>
@@ -10890,15 +10896,15 @@
       <c r="K244" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L244" s="7">
-        <v>10.154587962962999</v>
+      <c r="L244" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M244" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N244" s="5"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" s="8" t="s">
         <v>502</v>
       </c>
@@ -10926,15 +10932,15 @@
       <c r="K245" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L245" s="7">
-        <v>10.1962546296296</v>
+      <c r="L245" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M245" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N245" s="5"/>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" s="8" t="s">
         <v>504</v>
       </c>
@@ -10962,15 +10968,15 @@
       <c r="K246" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L246" s="7">
-        <v>10.2379212962963</v>
+      <c r="L246" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M246" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N246" s="5"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="8" t="s">
         <v>506</v>
       </c>
@@ -10998,15 +11004,15 @@
       <c r="K247" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L247" s="7">
-        <v>10.279587962962999</v>
+      <c r="L247" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M247" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N247" s="5"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="8" t="s">
         <v>508</v>
       </c>
@@ -11034,15 +11040,15 @@
       <c r="K248" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L248" s="7">
-        <v>10.3212546296296</v>
+      <c r="L248" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M248" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N248" s="5"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="8" t="s">
         <v>510</v>
       </c>
@@ -11070,15 +11076,15 @@
       <c r="K249" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L249" s="7">
-        <v>10.3629212962963</v>
+      <c r="L249" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M249" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N249" s="5"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="8" t="s">
         <v>512</v>
       </c>
@@ -11106,15 +11112,15 @@
       <c r="K250" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L250" s="7">
-        <v>10.404587962962999</v>
+      <c r="L250" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M250" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N250" s="5"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" s="8" t="s">
         <v>514</v>
       </c>
@@ -11142,15 +11148,15 @@
       <c r="K251" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L251" s="7">
-        <v>10.4462546296296</v>
+      <c r="L251" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M251" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N251" s="5"/>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="8" t="s">
         <v>516</v>
       </c>
@@ -11178,15 +11184,15 @@
       <c r="K252" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L252" s="7">
-        <v>10.4879212962963</v>
+      <c r="L252" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M252" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N252" s="5"/>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="8" t="s">
         <v>518</v>
       </c>
@@ -11214,15 +11220,15 @@
       <c r="K253" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L253" s="7">
-        <v>10.529587962962999</v>
+      <c r="L253" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M253" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N253" s="5"/>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" s="8" t="s">
         <v>520</v>
       </c>
@@ -11250,15 +11256,15 @@
       <c r="K254" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L254" s="7">
-        <v>10.5712546296296</v>
+      <c r="L254" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M254" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N254" s="5"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" s="8" t="s">
         <v>522</v>
       </c>
@@ -11286,15 +11292,15 @@
       <c r="K255" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L255" s="7">
-        <v>10.6129212962963</v>
+      <c r="L255" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M255" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N255" s="5"/>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" s="8" t="s">
         <v>524</v>
       </c>
@@ -11322,15 +11328,15 @@
       <c r="K256" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L256" s="7">
-        <v>10.654587962962999</v>
+      <c r="L256" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M256" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N256" s="5"/>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" s="8" t="s">
         <v>526</v>
       </c>
@@ -11358,15 +11364,15 @@
       <c r="K257" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L257" s="7">
-        <v>10.6962546296296</v>
+      <c r="L257" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M257" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N257" s="5"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="8" t="s">
         <v>528</v>
       </c>
@@ -11394,15 +11400,15 @@
       <c r="K258" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L258" s="7">
-        <v>10.7379212962963</v>
+      <c r="L258" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M258" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N258" s="5"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" s="8" t="s">
         <v>530</v>
       </c>
@@ -11430,15 +11436,15 @@
       <c r="K259" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L259" s="7">
-        <v>10.779587962962999</v>
+      <c r="L259" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M259" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N259" s="5"/>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" s="8" t="s">
         <v>532</v>
       </c>
@@ -11466,15 +11472,15 @@
       <c r="K260" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L260" s="7">
-        <v>10.8212546296296</v>
+      <c r="L260" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M260" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N260" s="5"/>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" s="8" t="s">
         <v>534</v>
       </c>
@@ -11502,15 +11508,15 @@
       <c r="K261" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L261" s="7">
-        <v>10.8629212962963</v>
+      <c r="L261" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M261" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N261" s="5"/>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="8" t="s">
         <v>536</v>
       </c>
@@ -11538,15 +11544,15 @@
       <c r="K262" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L262" s="7">
-        <v>10.904587962962999</v>
+      <c r="L262" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M262" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N262" s="5"/>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
         <v>538</v>
       </c>
@@ -11574,15 +11580,15 @@
       <c r="K263" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L263" s="7">
-        <v>10.9462546296296</v>
+      <c r="L263" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M263" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N263" s="5"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="8" t="s">
         <v>540</v>
       </c>
@@ -11610,8 +11616,8 @@
       <c r="K264" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L264" s="7">
-        <v>10.9879212962963</v>
+      <c r="L264" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="M264" s="6" t="b">
         <v>0</v>
